--- a/Documents/Examples/NCT03421379/EliLilly_NCT03421379_Diabetes.xlsx
+++ b/Documents/Examples/NCT03421379/EliLilly_NCT03421379_Diabetes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/NCT03421379/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81F7FA4-ED53-0B42-8221-021DB49898FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C22987-BBC8-3C4D-9603-A89093F530EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49340" yWindow="500" windowWidth="51180" windowHeight="24980" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="4740" yWindow="500" windowWidth="51180" windowHeight="24980" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="349">
   <si>
     <t>Epoch</t>
   </si>
@@ -438,9 +438,6 @@
   </si>
   <si>
     <t>Something Public</t>
-  </si>
-  <si>
-    <t>Somethign Clever</t>
   </si>
   <si>
     <t>draft</t>
@@ -1093,6 +1090,15 @@
   </si>
   <si>
     <t>Study Registry</t>
+  </si>
+  <si>
+    <t>ICD-10=1</t>
+  </si>
+  <si>
+    <t>ICD-10-CM=1</t>
+  </si>
+  <si>
+    <t>Something Clever</t>
   </si>
 </sst>
 </file>
@@ -1290,6 +1296,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1305,7 +1312,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1624,7 +1630,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1643,7 +1649,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -1713,7 +1719,7 @@
         <v>118</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1724,7 +1730,7 @@
     </row>
     <row r="7" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="10"/>
@@ -1772,16 +1778,16 @@
     </row>
     <row r="10" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>129</v>
+        <v>348</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1791,7 +1797,7 @@
         <v>45047</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2453,29 +2459,29 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" t="s">
         <v>141</v>
-      </c>
-      <c r="B5" t="s">
-        <v>142</v>
       </c>
       <c r="C5" t="s">
         <v>111</v>
       </c>
       <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
         <v>143</v>
-      </c>
-      <c r="E5" t="s">
-        <v>144</v>
       </c>
       <c r="F5" t="s">
         <v>89</v>
@@ -2484,7 +2490,7 @@
         <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2516,79 +2522,79 @@
         <v>85</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>157</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2620,144 +2626,144 @@
         <v>85</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="H1" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2787,101 +2793,101 @@
         <v>85</v>
       </c>
       <c r="B1" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>182</v>
-      </c>
       <c r="D1" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>241</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>189</v>
-      </c>
       <c r="D6" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2892,10 +2898,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1886B59F-3C17-014D-9C61-BEC33F421A82}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2905,18 +2911,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
         <v>136</v>
       </c>
-      <c r="B2" t="s">
-        <v>137</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2966,36 +2988,36 @@
         <v>32</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="C2" s="40" t="s">
         <v>340</v>
       </c>
+      <c r="C2" s="35" t="s">
+        <v>339</v>
+      </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" t="s">
         <v>338</v>
-      </c>
-      <c r="F2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="29" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="C3" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" t="s">
         <v>345</v>
       </c>
-      <c r="D3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>342</v>
+      <c r="E3" s="35" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3020,127 +3042,127 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
+        <v>203</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="B5" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
+      <c r="B7" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
+      <c r="B8" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
+        <v>146</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
+        <v>147</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>335</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>25</v>
@@ -3151,19 +3173,19 @@
         <v>22</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3171,19 +3193,19 @@
         <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="D14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3234,19 +3256,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3254,16 +3276,16 @@
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -3274,13 +3296,13 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3308,13 +3330,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>208</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3322,43 +3344,43 @@
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -3366,10 +3388,10 @@
         <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3399,10 +3421,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
@@ -3410,27 +3432,27 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="I1" s="38"/>
+      <c r="I1" s="39"/>
       <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>2</v>
@@ -3445,10 +3467,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>8</v>
@@ -3496,71 +3518,71 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -3571,7 +3593,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3579,10 +3601,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -3599,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="2"/>
@@ -3614,10 +3636,10 @@
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>5</v>
@@ -3628,10 +3650,10 @@
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -3642,7 +3664,7 @@
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C14"/>
       <c r="D14" s="1" t="s">
@@ -3651,7 +3673,7 @@
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="1" t="s">
@@ -3675,10 +3697,10 @@
     </row>
     <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -3695,10 +3717,10 @@
     </row>
     <row r="17" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>5</v>
@@ -3706,10 +3728,10 @@
     </row>
     <row r="18" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>5</v>
@@ -3723,7 +3745,7 @@
     </row>
     <row r="19" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C19"/>
       <c r="F19" s="1" t="s">
@@ -3735,7 +3757,7 @@
     </row>
     <row r="20" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C20"/>
       <c r="D20" s="1" t="s">
@@ -3762,10 +3784,10 @@
     </row>
     <row r="21" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="34" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
@@ -3776,7 +3798,7 @@
     </row>
     <row r="22" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C22"/>
       <c r="F22" s="1" t="s">
@@ -3788,7 +3810,7 @@
     </row>
     <row r="23" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23"/>
       <c r="F23" s="1" t="s">
@@ -3800,7 +3822,7 @@
     </row>
     <row r="24" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24"/>
       <c r="F24" s="1" t="s">
@@ -3812,10 +3834,10 @@
     </row>
     <row r="25" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C25" t="s">
         <v>332</v>
-      </c>
-      <c r="C25" t="s">
-        <v>333</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>5</v>
@@ -3826,10 +3848,10 @@
     </row>
     <row r="26" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B26" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C26" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>5</v>
@@ -3840,7 +3862,7 @@
     </row>
     <row r="27" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C27"/>
       <c r="D27" s="1" t="s">
@@ -3852,12 +3874,12 @@
     </row>
     <row r="28" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>5</v>
@@ -3865,7 +3887,7 @@
     </row>
     <row r="30" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
@@ -3876,7 +3898,7 @@
     </row>
     <row r="31" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>5</v>
@@ -3884,7 +3906,7 @@
     </row>
     <row r="32" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>5</v>
@@ -3901,7 +3923,7 @@
     </row>
     <row r="33" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>5</v>
@@ -3909,7 +3931,7 @@
     </row>
     <row r="34" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>5</v>
@@ -3917,7 +3939,7 @@
     </row>
     <row r="35" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>5</v>
@@ -3925,7 +3947,7 @@
     </row>
     <row r="36" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>5</v>
@@ -3933,12 +3955,12 @@
     </row>
     <row r="37" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>5</v>
@@ -3946,7 +3968,7 @@
     </row>
     <row r="39" spans="2:10" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>5</v>
@@ -3954,7 +3976,7 @@
     </row>
     <row r="40" spans="2:10" ht="34" x14ac:dyDescent="0.2">
       <c r="B40" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>5</v>
@@ -3991,23 +4013,23 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>150</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
     </row>
     <row r="2" spans="1:20" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>2</v>
@@ -4024,10 +4046,10 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>154</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>8</v>
@@ -4081,69 +4103,69 @@
         <v>10</v>
       </c>
       <c r="D6" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>333</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="J6" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>334</v>
+      </c>
+      <c r="M6" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="E6" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>321</v>
-      </c>
-      <c r="G6" s="33" t="s">
-        <v>322</v>
-      </c>
-      <c r="H6" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="J6" s="33" t="s">
-        <v>317</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>335</v>
-      </c>
-      <c r="M6" s="33" t="s">
+      <c r="N6" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="O6" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="P6" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="Q6" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="R6" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="R6" s="33" t="s">
+      <c r="S6" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="S6" s="33" t="s">
+      <c r="T6" s="33" t="s">
         <v>330</v>
-      </c>
-      <c r="T6" s="33" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="31"/>
       <c r="E8" s="31"/>
@@ -4163,15 +4185,15 @@
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -4195,10 +4217,10 @@
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>5</v>
@@ -4222,7 +4244,7 @@
     </row>
     <row r="12" spans="1:20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="7" t="s">
@@ -4249,7 +4271,7 @@
     </row>
     <row r="13" spans="1:20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="7" t="s">
@@ -4276,10 +4298,10 @@
     </row>
     <row r="14" spans="1:20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>5</v>
@@ -4315,7 +4337,7 @@
     </row>
     <row r="15" spans="1:20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
@@ -4353,7 +4375,7 @@
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>5</v>
@@ -4377,7 +4399,7 @@
     </row>
     <row r="17" spans="2:20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>5</v>
@@ -4401,7 +4423,7 @@
     </row>
     <row r="18" spans="2:20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>5</v>
@@ -4451,7 +4473,7 @@
     </row>
     <row r="19" spans="2:20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>5</v>
@@ -4501,7 +4523,7 @@
     </row>
     <row r="20" spans="2:20" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>5</v>
@@ -4527,7 +4549,7 @@
     </row>
     <row r="21" spans="2:20" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>5</v>
@@ -4547,7 +4569,7 @@
     </row>
     <row r="22" spans="2:20" s="1" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B22" s="26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>5</v>
@@ -4594,385 +4616,385 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>313</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>314</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="26" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C3" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C5" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C6" s="29"/>
       <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" s="29"/>
       <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C14" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C16" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C17" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C23" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C25" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C27" s="29" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="26" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>

--- a/Documents/Examples/NCT03421379/EliLilly_NCT03421379_Diabetes.xlsx
+++ b/Documents/Examples/NCT03421379/EliLilly_NCT03421379_Diabetes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/NCT03421379/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E96C855-D5DB-CB44-8D53-0954CA240AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF11AAE6-0BFA-4441-A8F6-213936D42E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29020" yWindow="500" windowWidth="61640" windowHeight="27180" firstSheet="4" activeTab="7" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="29020" yWindow="500" windowWidth="61640" windowHeight="27180" firstSheet="4" activeTab="16" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="1070">
   <si>
     <t>Screening</t>
   </si>
@@ -165,13 +165,7 @@
     <t>endpointLevel</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>Primary Endpoint</t>
-  </si>
-  <si>
-    <t>Study Secondary Objective</t>
   </si>
   <si>
     <t>Secondary Endpoint</t>
@@ -4917,6 +4911,15 @@
   &lt;li&gt;&lt;p&gt;and returning all unused medication to Lilly or its designee at the end of the study&lt;/p&gt;&lt;/li&gt;
 &lt;/ul&gt;</t>
   </si>
+  <si>
+    <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>Secondary Objective</t>
+  </si>
+  <si>
+    <t>Exploratory Objective</t>
+  </si>
 </sst>
 </file>
 
@@ -5174,13 +5177,13 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5517,10 +5520,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -5532,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -5568,7 +5571,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -5577,7 +5580,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="7"/>
       <c r="E6" s="1"/>
@@ -5587,10 +5590,10 @@
     </row>
     <row r="7" spans="1:8" ht="259" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5599,7 +5602,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="9"/>
       <c r="E8" s="1"/>
@@ -5609,10 +5612,10 @@
     </row>
     <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -5621,10 +5624,10 @@
     </row>
     <row r="10" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -5633,7 +5636,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="7"/>
       <c r="E11" s="1"/>
@@ -5643,7 +5646,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="7"/>
       <c r="E12" s="1"/>
@@ -5653,7 +5656,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="8"/>
       <c r="E13" s="1"/>
@@ -5663,10 +5666,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -5685,49 +5688,49 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>639</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>641</v>
-      </c>
       <c r="C17" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D17" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E17" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F17" s="31">
         <v>43074</v>
       </c>
       <c r="G17" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="H17" s="1"/>
     </row>
@@ -5789,66 +5792,66 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>716</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>26</v>
@@ -5856,13 +5859,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -5872,108 +5875,108 @@
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>707</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>716</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D6" s="32"/>
     </row>
@@ -5981,7 +5984,7 @@
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7" s="32"/>
     </row>
@@ -5989,7 +5992,7 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D8" s="32"/>
     </row>
@@ -6001,12 +6004,12 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C10"/>
       <c r="Q10" s="1" t="s">
@@ -6015,10 +6018,10 @@
     </row>
     <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>1</v>
@@ -6026,7 +6029,7 @@
     </row>
     <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C12"/>
       <c r="E12" s="1" t="s">
@@ -6035,10 +6038,10 @@
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C13" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>1</v>
@@ -6046,10 +6049,10 @@
     </row>
     <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C14" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>1</v>
@@ -6057,7 +6060,7 @@
     </row>
     <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C15"/>
       <c r="D15" s="1" t="s">
@@ -6081,7 +6084,7 @@
     </row>
     <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -6104,7 +6107,7 @@
     </row>
     <row r="17" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -6148,7 +6151,7 @@
     </row>
     <row r="18" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
@@ -6192,7 +6195,7 @@
     </row>
     <row r="19" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>1</v>
@@ -6209,7 +6212,7 @@
     </row>
     <row r="20" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1</v>
@@ -6253,956 +6256,956 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D1" s="24" t="s">
         <v>25</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>273</v>
-      </c>
-      <c r="H1" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="I1" s="24" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" t="s">
+        <v>275</v>
+      </c>
+      <c r="I2" t="s">
         <v>646</v>
-      </c>
-      <c r="G2" t="s">
-        <v>294</v>
-      </c>
-      <c r="H2" t="s">
-        <v>277</v>
-      </c>
-      <c r="I2" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C5" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="F5" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="G5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C6" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C7" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H7"/>
       <c r="I7"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F8" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C9" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="G11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I11"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C12" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I12"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B13" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C13" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="G13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I13"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B14" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G14" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" t="s">
+        <v>697</v>
+      </c>
+      <c r="C15" t="s">
+        <v>698</v>
+      </c>
+      <c r="D15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="G15" t="s">
         <v>292</v>
       </c>
-      <c r="B15" t="s">
-        <v>699</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="H15" t="s">
+        <v>275</v>
+      </c>
+      <c r="I15" t="s">
         <v>700</v>
-      </c>
-      <c r="D15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>689</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="G15" t="s">
-        <v>294</v>
-      </c>
-      <c r="H15" t="s">
-        <v>277</v>
-      </c>
-      <c r="I15" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G16" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="I16"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C17" t="s">
+        <v>717</v>
+      </c>
+      <c r="D17" t="s">
+        <v>274</v>
+      </c>
+      <c r="E17" t="s">
         <v>719</v>
       </c>
-      <c r="D17" t="s">
-        <v>276</v>
-      </c>
-      <c r="E17" t="s">
-        <v>721</v>
-      </c>
       <c r="F17" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G17" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C18" t="s">
+        <v>718</v>
+      </c>
+      <c r="D18" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" t="s">
         <v>720</v>
       </c>
-      <c r="D18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E18" t="s">
-        <v>722</v>
-      </c>
       <c r="F18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E19" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F19" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H19" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E20" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="F20" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H20" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E21" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F21" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E22" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="F22" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E23" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F23" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G23" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E24" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="F24" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E25" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F25" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G25" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E26" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="F26" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G26" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F27" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E28" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="F28" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F29" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G29" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E30" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="F30" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G30" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B31" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F31" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C32" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E32" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F32" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H32" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B33" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C33" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="D33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E33" t="s">
+        <v>724</v>
+      </c>
+      <c r="F33" t="s">
         <v>726</v>
       </c>
-      <c r="F33" t="s">
-        <v>728</v>
-      </c>
       <c r="G33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B34" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C34" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E34" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F34" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H34" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C35" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E35" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F35" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G35" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H35"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B36" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C36" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F36" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G36" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -7231,443 +7234,443 @@
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="34" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D1" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>332</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="37" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="38" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E4" s="33"/>
       <c r="F4" s="38" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="38" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="38" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="38" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>744</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>789</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>790</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>791</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>792</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>795</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>797</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>796</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>797</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>798</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>799</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>803</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>801</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>802</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>805</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>803</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>804</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>836</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>838</v>
-      </c>
       <c r="C25" s="9" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>839</v>
-      </c>
       <c r="C26" s="9" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -7693,387 +7696,387 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>777</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>804</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:3" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -8116,169 +8119,169 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="K1" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="P1" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="S1" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>252</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D2" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="H2" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="L2" s="37" t="s">
         <v>1063</v>
       </c>
-      <c r="F2" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="L2" s="37" t="s">
-        <v>1065</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="E3" s="41" t="s">
+      <c r="K3" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="L3" s="37" t="s">
         <v>1063</v>
       </c>
-      <c r="F3" s="41" t="s">
-        <v>255</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>1064</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="M3" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="O3" s="3" t="s">
         <v>863</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>1065</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>865</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
   </sheetData>
@@ -8304,13 +8307,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>27</v>
@@ -8318,30 +8321,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -8371,25 +8374,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>29</v>
@@ -8397,16 +8400,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E2">
         <v>66</v>
@@ -8420,42 +8423,42 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
+        <v>612</v>
+      </c>
+      <c r="C4" t="s">
         <v>614</v>
       </c>
-      <c r="C4" t="s">
-        <v>616</v>
-      </c>
       <c r="D4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E4">
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -8467,8 +8470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B908C5D6-C6A1-4043-A49A-69C599CFBAE9}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8487,34 +8490,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G1" s="14" t="s">
         <v>33</v>
       </c>
       <c r="H1" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>232</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>234</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>34</v>
@@ -8522,142 +8525,142 @@
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>35</v>
+        <v>1067</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>37</v>
+        <v>1068</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>37</v>
+        <v>1068</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>37</v>
+        <v>1068</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>37</v>
+        <v>1069</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>37</v>
+        <v>1069</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -8866,28 +8869,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="G1" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -8915,139 +8918,139 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>746</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>748</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -9286,43 +9289,43 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="30" t="s">
         <v>626</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="F1" s="30" t="s">
-        <v>628</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="191" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>633</v>
       </c>
       <c r="G2" s="7"/>
     </row>
@@ -9351,39 +9354,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -9392,151 +9395,151 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -9563,104 +9566,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D4" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>196</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="D6" s="21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -9688,16 +9691,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -9705,10 +9708,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="409" customHeight="1" x14ac:dyDescent="0.2">
@@ -9716,10 +9719,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -9727,10 +9730,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -9738,40 +9741,40 @@
         <v>3</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A7" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>360</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>361</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
@@ -9779,10 +9782,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -9790,62 +9793,62 @@
         <v>5</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="388" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="289" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>371</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>374</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>377</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="68" x14ac:dyDescent="0.2">
@@ -9853,98 +9856,98 @@
         <v>6</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="28" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>384</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>387</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>388</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>390</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>391</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A23" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" s="26" t="s">
         <v>395</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>396</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>398</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -9952,128 +9955,128 @@
         <v>7</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>404</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>407</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>409</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>410</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>412</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>413</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>414</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="28" t="s">
+        <v>414</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>416</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>417</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>419</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>420</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A33" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>421</v>
+      </c>
+      <c r="D33" s="26" t="s">
         <v>422</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>423</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>425</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>426</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="255" x14ac:dyDescent="0.2">
       <c r="A35" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>428</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>431</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -10081,62 +10084,62 @@
         <v>8</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>438</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>439</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A40" s="28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="28" t="s">
+        <v>441</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>442</v>
+      </c>
+      <c r="D41" s="25" t="s">
         <v>443</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>444</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="D42" s="25" t="s">
         <v>446</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>447</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="85" x14ac:dyDescent="0.2">
@@ -10144,367 +10147,367 @@
         <v>9</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>450</v>
+      </c>
+      <c r="D44" s="25" t="s">
         <v>451</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>452</v>
-      </c>
-      <c r="D44" s="25" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>453</v>
+      </c>
+      <c r="D45" s="26" t="s">
         <v>454</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>455</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="28" t="s">
+        <v>455</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D46" s="25" t="s">
         <v>457</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>458</v>
-      </c>
-      <c r="D46" s="25" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A47" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D47" s="26" t="s">
         <v>460</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>461</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="28" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="A49" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>464</v>
+      </c>
+      <c r="D49" s="26" t="s">
         <v>465</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="28" t="s">
+        <v>466</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="D50" s="25" t="s">
         <v>468</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>469</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A51" s="28" t="s">
+        <v>469</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="D51" s="26" t="s">
         <v>471</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>472</v>
-      </c>
-      <c r="D51" s="26" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A52" s="28" t="s">
+        <v>472</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>473</v>
+      </c>
+      <c r="D52" s="26" t="s">
         <v>474</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>475</v>
-      </c>
-      <c r="D52" s="26" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A53" s="28" t="s">
+        <v>475</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="D53" s="26" t="s">
         <v>477</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>478</v>
-      </c>
-      <c r="D53" s="26" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A54" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="D54" s="25" t="s">
         <v>480</v>
-      </c>
-      <c r="C54" s="26" t="s">
-        <v>481</v>
-      </c>
-      <c r="D54" s="25" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="D55" s="25" t="s">
         <v>483</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>484</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="A56" s="28" t="s">
+        <v>484</v>
+      </c>
+      <c r="C56" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="D56" s="26" t="s">
         <v>486</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>487</v>
-      </c>
-      <c r="D56" s="26" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A57" s="28" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="D58" s="25" t="s">
         <v>491</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>492</v>
-      </c>
-      <c r="D58" s="25" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A59" s="28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>493</v>
+      </c>
+      <c r="D59" s="26" t="s">
         <v>494</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>495</v>
-      </c>
-      <c r="D59" s="26" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A60" s="28" t="s">
+        <v>495</v>
+      </c>
+      <c r="C60" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>497</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>498</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D61" s="25" t="s">
         <v>500</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>501</v>
-      </c>
-      <c r="D61" s="25" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A63" s="28" t="s">
+        <v>503</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>504</v>
+      </c>
+      <c r="D63" s="26" t="s">
         <v>505</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="D63" s="26" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A64" s="28" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D64" s="26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="238" x14ac:dyDescent="0.2">
       <c r="A65" s="28" t="s">
+        <v>508</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="D65" s="26" t="s">
         <v>510</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="D65" s="26" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="28" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="D66" s="25" t="s">
         <v>513</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>514</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D67" s="26" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D68" s="26" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D69" s="26" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D70" s="26" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="D71" s="26" t="s">
         <v>524</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>525</v>
-      </c>
-      <c r="D71" s="26" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
+        <v>525</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="D72" s="26" t="s">
         <v>527</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="D72" s="26" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
+        <v>528</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>529</v>
+      </c>
+      <c r="D73" s="26" t="s">
         <v>530</v>
-      </c>
-      <c r="C73" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="D73" s="26" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
+        <v>531</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="D74" s="26" t="s">
         <v>533</v>
-      </c>
-      <c r="C74" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="D74" s="26" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C75" s="25" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -10512,274 +10515,274 @@
         <v>10</v>
       </c>
       <c r="C77" s="25" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A78" s="28" t="s">
+        <v>539</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>540</v>
+      </c>
+      <c r="D78" s="26" t="s">
         <v>541</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>542</v>
-      </c>
-      <c r="D78" s="26" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="28" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C79" s="25" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="28" t="s">
+        <v>544</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>545</v>
+      </c>
+      <c r="D80" s="26" t="s">
         <v>546</v>
-      </c>
-      <c r="C80" s="25" t="s">
-        <v>547</v>
-      </c>
-      <c r="D80" s="26" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="D81" s="25" t="s">
         <v>549</v>
-      </c>
-      <c r="C81" s="25" t="s">
-        <v>550</v>
-      </c>
-      <c r="D81" s="25" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="28" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C82" s="25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="D83" s="26" t="s">
         <v>554</v>
-      </c>
-      <c r="C83" s="25" t="s">
-        <v>555</v>
-      </c>
-      <c r="D83" s="26" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C84" s="25" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A85" s="28" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C85" s="25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D85" s="26" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="28" t="s">
+        <v>990</v>
+      </c>
+      <c r="C86" s="43" t="s">
         <v>992</v>
-      </c>
-      <c r="C86" s="43" t="s">
-        <v>994</v>
       </c>
       <c r="D86" s="26"/>
     </row>
     <row r="87" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A87" s="28" t="s">
+        <v>998</v>
+      </c>
+      <c r="C87" s="43" t="s">
+        <v>999</v>
+      </c>
+      <c r="D87" s="26" t="s">
         <v>1000</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="28" t="s">
+        <v>994</v>
+      </c>
+      <c r="C88" s="25" t="s">
         <v>996</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>998</v>
       </c>
       <c r="D88" s="26"/>
     </row>
     <row r="89" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="28" t="s">
+        <v>995</v>
+      </c>
+      <c r="C89" s="25" t="s">
         <v>997</v>
       </c>
-      <c r="C89" s="25" t="s">
-        <v>999</v>
-      </c>
       <c r="D89" s="26" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C90" s="25" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A91" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>562</v>
+      </c>
+      <c r="D91" s="26" t="s">
         <v>563</v>
-      </c>
-      <c r="C91" s="25" t="s">
-        <v>564</v>
-      </c>
-      <c r="D91" s="26" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>565</v>
+      </c>
+      <c r="D92" s="25" t="s">
         <v>566</v>
-      </c>
-      <c r="C92" s="25" t="s">
-        <v>567</v>
-      </c>
-      <c r="D92" s="25" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>568</v>
+      </c>
+      <c r="D93" s="25" t="s">
         <v>569</v>
-      </c>
-      <c r="C93" s="25" t="s">
-        <v>570</v>
-      </c>
-      <c r="D93" s="25" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="28" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C94" s="25" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A95" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>573</v>
+      </c>
+      <c r="D95" s="26" t="s">
         <v>574</v>
-      </c>
-      <c r="C95" s="25" t="s">
-        <v>575</v>
-      </c>
-      <c r="D95" s="26" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A96" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="D96" s="26" t="s">
         <v>577</v>
-      </c>
-      <c r="C96" s="25" t="s">
-        <v>578</v>
-      </c>
-      <c r="D96" s="26" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="28" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C97" s="25" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A98" s="28" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C98" s="25" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D98" s="26" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A99" s="28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D99" s="26" t="s">
         <v>1003</v>
-      </c>
-      <c r="C99" s="25" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D99" s="26" t="s">
-        <v>1005</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="D100" s="25" t="s">
         <v>584</v>
-      </c>
-      <c r="C100" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A101" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D101" s="26" t="s">
         <v>587</v>
-      </c>
-      <c r="C101" s="25" t="s">
-        <v>588</v>
-      </c>
-      <c r="D101" s="26" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="28" t="s">
+        <v>588</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="D102" s="25" t="s">
         <v>590</v>
-      </c>
-      <c r="C102" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A103" s="28" t="s">
+        <v>591</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="D103" s="26" t="s">
         <v>593</v>
-      </c>
-      <c r="C103" s="25" t="s">
-        <v>594</v>
-      </c>
-      <c r="D103" s="26" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
@@ -10787,109 +10790,109 @@
         <v>11</v>
       </c>
       <c r="C104" s="25" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D104" s="44" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A105" s="28" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C105" s="25" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D105" s="26" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A106" s="28" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C106" s="25" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D106" s="26" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A107" s="28" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C107" s="25" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D107" s="26" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A108" s="28" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D108" s="26" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A109" s="28" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C109" s="25" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D109" s="26" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A110" s="28" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C110" s="25" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D110" s="26" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A111" s="28" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D111" s="26" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="136" x14ac:dyDescent="0.2">
       <c r="A112" s="28" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D112" s="26" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="221" x14ac:dyDescent="0.2">
       <c r="A113" s="28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D113" s="26" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
   </sheetData>
@@ -10916,18 +10919,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -10977,39 +10980,39 @@
         <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="D3" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" t="s">
-        <v>195</v>
-      </c>
       <c r="E3" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -11034,10 +11037,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
@@ -11045,10 +11048,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
@@ -11058,50 +11061,50 @@
       <c r="A3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
+      <c r="B6" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
@@ -11112,7 +11115,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="45"/>
       <c r="D8" s="45"/>
@@ -11120,10 +11123,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="45"/>
       <c r="D9" s="45"/>
@@ -11131,10 +11134,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C10" s="45"/>
       <c r="D10" s="45"/>
@@ -11142,19 +11145,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -11162,42 +11165,42 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -11214,16 +11217,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -11251,610 +11254,610 @@
   <sheetData>
     <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="372" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>894</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>895</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>897</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>878</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>902</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>871</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>880</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>887</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
   </sheetData>
@@ -11882,53 +11885,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>208</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>209</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11956,16 +11959,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -11973,55 +11976,55 @@
         <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -12029,13 +12032,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -12047,7 +12050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
@@ -12064,66 +12067,66 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>679</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>26</v>
@@ -12131,13 +12134,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
@@ -12147,154 +12150,154 @@
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>679</v>
-      </c>
       <c r="P5" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>15</v>
@@ -12307,52 +12310,52 @@
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
@@ -12363,15 +12366,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="34" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -12392,10 +12395,10 @@
     </row>
     <row r="11" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -12410,10 +12413,10 @@
     </row>
     <row r="12" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -12424,10 +12427,10 @@
     </row>
     <row r="13" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>1</v>
@@ -12438,10 +12441,10 @@
     </row>
     <row r="14" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -12449,7 +12452,7 @@
     </row>
     <row r="15" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="1" t="s">
@@ -12473,10 +12476,10 @@
     </row>
     <row r="16" spans="1:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1</v>
@@ -12487,10 +12490,10 @@
     </row>
     <row r="17" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -12501,7 +12504,7 @@
     </row>
     <row r="18" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C18" s="6"/>
       <c r="I18" s="1" t="s">
@@ -12513,10 +12516,10 @@
     </row>
     <row r="19" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1</v>
@@ -12542,10 +12545,10 @@
     </row>
     <row r="20" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="18" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>1</v>
@@ -12556,7 +12559,7 @@
     </row>
     <row r="21" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" s="18" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C21" s="6"/>
       <c r="H21" s="1" t="s">
@@ -12568,10 +12571,10 @@
     </row>
     <row r="22" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B22" s="18" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>1</v>
@@ -12582,10 +12585,10 @@
     </row>
     <row r="23" spans="2:17" ht="34" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -12596,7 +12599,7 @@
     </row>
     <row r="24" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="1" t="s">
@@ -12608,16 +12611,16 @@
     </row>
     <row r="25" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C25" s="6"/>
     </row>
     <row r="26" spans="2:17" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -12625,10 +12628,10 @@
     </row>
     <row r="27" spans="2:17" ht="356" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>781</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>783</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -12639,10 +12642,10 @@
     </row>
     <row r="28" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -12653,7 +12656,7 @@
     </row>
     <row r="29" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="1" t="s">
@@ -12671,7 +12674,7 @@
     </row>
     <row r="30" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="1" t="s">
@@ -12680,7 +12683,7 @@
     </row>
     <row r="31" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="1" t="s">
@@ -12689,7 +12692,7 @@
     </row>
     <row r="32" spans="2:17" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="1" t="s">
@@ -12698,7 +12701,7 @@
     </row>
     <row r="33" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C33" s="6"/>
       <c r="Q33" s="1" t="s">
@@ -12710,13 +12713,13 @@
     </row>
     <row r="34" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C34" s="6"/>
     </row>
     <row r="35" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C35" s="6"/>
       <c r="E35" s="1" t="s">
@@ -12725,7 +12728,7 @@
     </row>
     <row r="36" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C36" s="6"/>
       <c r="G36" s="1" t="s">
@@ -12740,7 +12743,7 @@
     </row>
     <row r="37" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C37" s="6"/>
       <c r="E37" s="1" t="s">
@@ -12752,13 +12755,13 @@
     </row>
     <row r="38" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C38" s="6"/>
     </row>
     <row r="39" spans="2:18" ht="17" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C39" s="6"/>
     </row>
@@ -12793,36 +12796,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>725</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>26</v>
@@ -12830,13 +12833,13 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -12846,62 +12849,62 @@
         <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -12912,15 +12915,15 @@
         <v>3</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" s="22" t="s">
         <v>1</v>
@@ -12931,7 +12934,7 @@
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C11"/>
       <c r="D11" s="22" t="s">
@@ -12943,7 +12946,7 @@
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C12"/>
       <c r="D12" s="22" t="s">
@@ -12955,7 +12958,7 @@
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="22" t="s">
@@ -12967,7 +12970,7 @@
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B14" s="6" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22" t="s">
@@ -12980,7 +12983,7 @@
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B15" s="18" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>1</v>
@@ -12991,7 +12994,7 @@
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B16" s="6" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D16" s="22" t="s">
         <v>1</v>
@@ -13002,7 +13005,7 @@
     </row>
     <row r="17" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B17" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D17" s="22" t="s">
         <v>1</v>
@@ -13016,7 +13019,7 @@
     </row>
     <row r="18" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
@@ -13025,7 +13028,7 @@
     </row>
     <row r="19" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D19" s="22" t="s">
         <v>1</v>
@@ -13036,7 +13039,7 @@
     </row>
     <row r="20" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>1</v>
